--- a/csv/svm/svm_pc25polynomial_final.xlsx
+++ b/csv/svm/svm_pc25polynomial_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16203703703703703</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04784448401023634</v>
+        <v>0.06670523575676991</v>
       </c>
     </row>
   </sheetData>
@@ -146,7 +146,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -161,7 +161,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -172,7 +172,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -184,7 +184,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -198,13 +198,13 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -218,19 +218,19 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -247,10 +247,10 @@
         <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -261,14 +261,14 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>4.0</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.0</v>
-      </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
@@ -276,7 +276,7 @@
         <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
